--- a/biology/Botanique/Senecio_gallicus/Senecio_gallicus.xlsx
+++ b/biology/Botanique/Senecio_gallicus/Senecio_gallicus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Senecio gallicus est une plante annuelle du genre Senecio, de la famille des Asteraceae. C’est une espèce qui colonise des habitats isolés aux conditions environnementales difficiles . Elle est répandue dans le sud de la France et dans la péninsule ibérique, dans les déserts et les maquis xériques, dans les steppes et les plaines côtières sèches et salées[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Senecio gallicus est une plante annuelle du genre Senecio, de la famille des Asteraceae. C’est une espèce qui colonise des habitats isolés aux conditions environnementales difficiles . Elle est répandue dans le sud de la France et dans la péninsule ibérique, dans les déserts et les maquis xériques, dans les steppes et les plaines côtières sèches et salées.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Noms communs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>anglais : French groundsel
 espagnol : Azuzón de Alborán
@@ -544,9 +558,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Des spécimens de Senecio gallicus ont été collectés à des altitudes de 15 mètres (49,2125985 pi)[2] et 1 400 mètres (4 593,17586 pi)[3] au-dessus du niveau de la mer.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Des spécimens de Senecio gallicus ont été collectés à des altitudes de 15 mètres (49,2125985 pi) et 1 400 mètres (4 593,17586 pi) au-dessus du niveau de la mer.
 Indigène
 Paléarctique :
 Europe du Sud-Ouest : Alboran, Formentera, Ibiza, Italie, France, Monaco, Maroc, Portugal, Espagne
@@ -555,7 +571,7 @@
 Asie occidentale : Israël
 Europe du Sud-Ouest : Alboran, Formentera, Ibiza, Italie, France, Monaco, Maroc, Portugal, Sicile, Espagne
 Europe centrale : Belgique
-Europe du Nord : Suède[4]
+Europe du Nord : Suède
 Synonymes
 Senecio gallicus Chaix var. calyculatus Emb. &amp; Statut Maire incertain
 Senecio gallicus Chaix var. laxiflorus DC. statut incertain
@@ -564,7 +580,7 @@
 Senecio Gallique Chaix subsp. Gallique
 Senecio gallicus Chaix var. calyculatus Emb. &amp; Maire
 Senecio gallicus Chaix var. laxiflorus DC.
-Senecio gallicus Chaix var. boule sonchifolius[5]</t>
+Senecio gallicus Chaix var. boule sonchifolius</t>
         </is>
       </c>
     </row>
